--- a/Maliyet.xlsx
+++ b/Maliyet.xlsx
@@ -8,22 +8,23 @@
     <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Anasayfa" sheetId="1" r:id="rId4"/>
+    <sheet name="Fiyat Listesi" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1611168028" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1611168028" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1611168028" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1611168028"/>
+      <pm:revision xmlns:pm="smNativeData" day="1611437300" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1611437300" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1611437300" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1611437300"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Maliyet</t>
   </si>
@@ -46,7 +47,13 @@
     <t>ev yönetim ekranı</t>
   </si>
   <si>
-    <t>Donanım</t>
+    <t>ilk amaç</t>
+  </si>
+  <si>
+    <t>gelecekte</t>
+  </si>
+  <si>
+    <t>önem arz edenler</t>
   </si>
   <si>
     <t>Eklenecekler</t>
@@ -55,7 +62,25 @@
     <t>Yapılacaklar</t>
   </si>
   <si>
-    <t>Görüntülü kapı açma sistemi</t>
+    <t>Örnekler</t>
+  </si>
+  <si>
+    <t>Senaryolar</t>
+  </si>
+  <si>
+    <t>ilgi çeken özellikler</t>
+  </si>
+  <si>
+    <t>olabilecek en hazır parçaları kullanıp sistemi ayağa kaldırmak</t>
+  </si>
+  <si>
+    <t>Kendi parçalarımıza geçmek</t>
+  </si>
+  <si>
+    <t>Estetik</t>
+  </si>
+  <si>
+    <t>Görüntülü kapı açma sistemi(telefondan da görebilme ve kontrol edebilme)</t>
   </si>
   <si>
     <t xml:space="preserve">Uygulama                       </t>
@@ -64,6 +89,24 @@
     <t>yavizb</t>
   </si>
   <si>
+    <t>tuya, sonoff, google home, smart things</t>
+  </si>
+  <si>
+    <t>önceden sıcaklık ayarlama</t>
+  </si>
+  <si>
+    <t>behzat x</t>
+  </si>
+  <si>
+    <t>google home tableti</t>
+  </si>
+  <si>
+    <t>kendi ekranımız</t>
+  </si>
+  <si>
+    <t>Fiyat</t>
+  </si>
+  <si>
     <t>Sensörler</t>
   </si>
   <si>
@@ -73,6 +116,18 @@
     <t>ömer</t>
   </si>
   <si>
+    <t>yerinden kalkmadan kapıya bakabilme LÜKSÜ</t>
+  </si>
+  <si>
+    <t>google home uygulaması</t>
+  </si>
+  <si>
+    <t>kendi prizlerimiz</t>
+  </si>
+  <si>
+    <t>Kullanılabilirlik(gündelik hayatta uygulanabilirlik)</t>
+  </si>
+  <si>
     <t>Smart button</t>
   </si>
   <si>
@@ -80,6 +135,39 @@
   </si>
   <si>
     <t>mahir</t>
+  </si>
+  <si>
+    <t>Çocuk koruma sistemi(kullanılmayan prizler kendini kapatacak - elle kontrol)</t>
+  </si>
+  <si>
+    <t>internetsiz kullanıma izin vermesi(önemli güvenlik sorunlarından dolayı)</t>
+  </si>
+  <si>
+    <t>parçalar tek bir yerden kontrol edilecek şekilde yerleştirme?(pano tarzı)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">google home, smart hub, smarthings gibi cihazlarladan yönetim </t>
+  </si>
+  <si>
+    <t>Window Opener Systems(gelecekte) akıllı pencere</t>
+  </si>
+  <si>
+    <t>prizler için elektronik sistem ? sonoff dokunmatik anahtarı</t>
+  </si>
+  <si>
+    <t>perde aç kapa</t>
+  </si>
+  <si>
+    <t>Ekran işi çözülmeli(en önemli kısım)</t>
+  </si>
+  <si>
+    <t>Alarm sistemi</t>
+  </si>
+  <si>
+    <t>Fiyat araştırması ve listesi</t>
+  </si>
+  <si>
+    <t>mahir ve yaviz</t>
   </si>
 </sst>
 </file>
@@ -96,7 +184,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -104,7 +192,39 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611168028" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611437300" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611437300" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <u val="single"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611437300" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -122,33 +242,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF9E"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611168028" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611168028" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="0" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF5C5C"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611168028" type="1" fgLvl="64" fgClr="00FF0000" bgLvl="36" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611437300" type="1" fgLvl="64" fgClr="00FF0000" bgLvl="36" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -159,7 +257,29 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611168028" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611437300" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF9E"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1611437300" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD10000"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1611437300" type="1" fgLvl="82" fgClr="00FF0000" bgLvl="18" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -181,7 +301,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611168028"/>
+          <pm:border xmlns:pm="smNativeData" id="1611437300"/>
         </ext>
       </extLst>
     </border>
@@ -200,7 +320,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611168028"/>
+          <pm:border xmlns:pm="smNativeData" id="1611437300"/>
         </ext>
       </extLst>
     </border>
@@ -219,7 +339,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611168028"/>
+          <pm:border xmlns:pm="smNativeData" id="1611437300"/>
         </ext>
       </extLst>
     </border>
@@ -238,7 +358,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611168028"/>
+          <pm:border xmlns:pm="smNativeData" id="1611437300"/>
         </ext>
       </extLst>
     </border>
@@ -257,7 +377,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611168028"/>
+          <pm:border xmlns:pm="smNativeData" id="1611437300"/>
         </ext>
       </extLst>
     </border>
@@ -265,12 +385,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -278,9 +415,18 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1611168028" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1611437300" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
+      <pm:colors xmlns:pm="smNativeData" id="1611437300" count="7">
+        <pm:color name="Color 24" rgb="FFFF9E"/>
+        <pm:color name="Color 25" rgb="FF5C5C"/>
+        <pm:color name="Color 26" rgb="95B3D7"/>
+        <pm:color name="Color 27" rgb="DCE6F1"/>
+        <pm:color name="Color 28" rgb="D8D8D8"/>
+        <pm:color name="Color 29" rgb="BFBFBF"/>
+        <pm:color name="Color 30" rgb="4F81BD"/>
+      </pm:colors>
     </ext>
   </extLst>
 </styleSheet>
@@ -542,111 +688,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <cols>
-    <col min="1" max="2" width="15.000000" customWidth="1"/>
-    <col min="13" max="13" width="30.540541" customWidth="1"/>
-    <col min="16" max="16" width="46.081081" customWidth="1"/>
+    <col min="1" max="2" width="15.000000" customWidth="1" style="2"/>
+    <col min="3" max="6" width="10.000000" style="2"/>
+    <col min="7" max="7" width="22.837838" customWidth="1" style="2"/>
+    <col min="8" max="8" width="18.243243" customWidth="1" style="2"/>
+    <col min="9" max="9" width="10.000000" style="2"/>
+    <col min="10" max="10" width="27.027027" customWidth="1" style="2"/>
+    <col min="11" max="12" width="10.000000" style="2"/>
+    <col min="13" max="13" width="36.891892" customWidth="1" style="2"/>
+    <col min="14" max="15" width="10.000000" style="2"/>
+    <col min="16" max="16" width="45.810811" customWidth="1" style="2"/>
+    <col min="17" max="17" width="15.135135" customWidth="1" style="2"/>
+    <col min="18" max="18" width="10.000000" style="2"/>
+    <col min="19" max="19" width="34.459459" customWidth="1" style="2"/>
+    <col min="20" max="20" width="10.000000" style="2"/>
+    <col min="21" max="21" width="26.351351" customWidth="1" style="2"/>
+    <col min="22" max="22" width="10.000000" style="2"/>
+    <col min="23" max="23" width="22.837838" customWidth="1" style="2"/>
+    <col min="24" max="16384" width="10.000000" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="13:13">
-      <c r="M9" t="s">
+      <c r="M9"/>
+    </row>
+    <row r="11" spans="7:8">
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="7:23">
+      <c r="G12" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="16:16">
-      <c r="P11"/>
-    </row>
-    <row r="12" spans="13:16">
-      <c r="M12" s="1" t="s">
+      <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="J12" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="13:17">
-      <c r="M13" t="s">
+      <c r="M12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S12" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="13:17">
-      <c r="M14" t="s">
+      <c r="U12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P14" t="s">
+      <c r="W12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q14" t="s">
+    </row>
+    <row r="13" spans="7:23">
+      <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="13:17">
-      <c r="M15" t="s">
+      <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P15" t="s">
+      <c r="J13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="M13" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18"/>
+      <c r="P13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="7:21">
+      <c r="G14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="7:21">
+      <c r="G15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="7:16" ht="47.20" customHeight="1">
+      <c r="G16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="13:16">
+      <c r="M17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="13:17">
+      <c r="M18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="13:17">
+      <c r="M19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="6"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611168028" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611437300" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -655,16 +917,56 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611168028" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611168028" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611168028" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611168028" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611437300" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611437300" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611437300" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611437300" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611168028" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611437300" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <sheetData/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611437300" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1611437300" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611437300" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611437300" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611437300" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611437300" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
